--- a/biology/Botanique/Jardinage_biologique/Jardinage_biologique.xlsx
+++ b/biology/Botanique/Jardinage_biologique/Jardinage_biologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardinage biologique consiste à appliquer au jardinage les principes de l'agriculture biologique.
 </t>
@@ -511,7 +523,9 @@
           <t>Principes généraux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La principale différence avec l'agriculture biologique réside dans le fait que le jardinage, qui peut n'être qu'une activité de loisirs, est soumis à d'autres contraintes économiques que celles de l'agriculture.
 Par rapport au jardinage classique, les principales différences portent sur :
@@ -546,7 +560,9 @@
           <t>Des méthodes respectueuses de la nature et de la santé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pour remplacer l'utilisation de produits chimiques, de nombreuses solutions existent :
 Privilégier la lutte biologique ou la lutte intégrée souvent aussi efficace que la lutte chimique et moins toxique pour le consommateur.
